--- a/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-AuditoriaRequerimientos-160404.xlsx
+++ b/Proyectos/ControlDeGastos/05. Calidad/ControlDeGastos-AuditoriaRequerimientos-160404.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -690,7 +690,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,12 +730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,9 +1177,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1245,6 +1236,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1317,7 +1311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1398,11 +1391,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="57180160"/>
-        <c:axId val="57181696"/>
+        <c:axId val="106529152"/>
+        <c:axId val="106530688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57180160"/>
+        <c:axId val="106529152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,14 +1436,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57181696"/>
+        <c:crossAx val="106530688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57181696"/>
+        <c:axId val="106530688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1500,7 +1493,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57180160"/>
+        <c:crossAx val="106529152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1542,7 +1535,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1583,7 +1576,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1676,11 +1668,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="72492544"/>
-        <c:axId val="72494080"/>
+        <c:axId val="106555264"/>
+        <c:axId val="106556800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72492544"/>
+        <c:axId val="106555264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,14 +1713,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72494080"/>
+        <c:crossAx val="106556800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72494080"/>
+        <c:axId val="106556800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1778,7 +1770,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72492544"/>
+        <c:crossAx val="106555264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,7 +1812,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1856,7 +1848,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1925,11 +1916,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="72522368"/>
-        <c:axId val="72524160"/>
+        <c:axId val="106855424"/>
+        <c:axId val="106873600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72522368"/>
+        <c:axId val="106855424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,14 +1961,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72524160"/>
+        <c:crossAx val="106873600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72524160"/>
+        <c:axId val="106873600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2027,7 +2018,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72522368"/>
+        <c:crossAx val="106855424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2069,7 +2060,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2105,7 +2096,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2174,11 +2164,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="83959808"/>
-        <c:axId val="83961344"/>
+        <c:axId val="105034112"/>
+        <c:axId val="105035648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83959808"/>
+        <c:axId val="105034112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,14 +2209,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83961344"/>
+        <c:crossAx val="105035648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83961344"/>
+        <c:axId val="105035648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2276,7 +2266,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83959808"/>
+        <c:crossAx val="105034112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2318,7 +2308,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2997,76 +2987,76 @@
     <row r="1" spans="1:6" ht="67.5" customHeight="1"/>
     <row r="2" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="83">
         <v>42464</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="B13" s="7" t="s">
@@ -3086,7 +3076,7 @@
       </c>
       <c r="C14" s="9">
         <f>COUNTA(Procesos!D6:D11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="10">
         <f>COUNTIF((Procesos!D6:D11),"x")/(COUNTIF((Procesos!D6:D11),"x")+COUNTIF((Procesos!E6:E11),"x"))</f>
@@ -3151,11 +3141,11 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
       <c r="B21" s="14" t="s">
@@ -3268,11 +3258,11 @@
     </row>
     <row r="29" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="30" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="2"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3337,11 +3327,11 @@
     </row>
     <row r="35" spans="2:5" s="3" customFormat="1"/>
     <row r="36" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" s="3" customFormat="1" ht="16.5">
@@ -3425,7 +3415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3449,22 +3439,22 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3474,17 +3464,17 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B6" s="20">
@@ -3568,21 +3558,23 @@
       <c r="C11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B14" s="20">
@@ -3676,14 +3668,14 @@
     </row>
     <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B23" s="20">
@@ -3790,10 +3782,10 @@
     </row>
     <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="88"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -3852,14 +3844,14 @@
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="38" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
     </row>
     <row r="39" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
       <c r="B39" s="20">
@@ -3968,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3994,23 +3986,23 @@
     </row>
     <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -4020,18 +4012,18 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A6" s="32"/>
@@ -4219,14 +4211,14 @@
     </row>
     <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A19" s="32"/>
@@ -4446,14 +4438,14 @@
     </row>
     <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="87"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A34" s="32"/>
@@ -4572,7 +4564,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="92" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="22" t="s">
@@ -4641,14 +4633,14 @@
     </row>
     <row r="46" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="43"/>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
     </row>
     <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A47" s="32"/>
@@ -4884,14 +4876,14 @@
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="43"/>
-      <c r="B64" s="87" t="s">
+      <c r="B64" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
     </row>
     <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A65" s="32"/>
@@ -4987,14 +4979,14 @@
     </row>
     <row r="72" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A72" s="43"/>
-      <c r="B72" s="87" t="s">
+      <c r="B72" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
     </row>
     <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A73" s="32"/>
@@ -5062,14 +5054,14 @@
     </row>
     <row r="78" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A78" s="43"/>
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
     </row>
     <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B79" s="46">
@@ -5225,16 +5217,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="49"/>
@@ -5244,8 +5236,8 @@
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="17.25">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5255,7 +5247,7 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -5263,14 +5255,14 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="54"/>
       <c r="I5" s="54"/>
       <c r="J5" s="54"/>
@@ -5350,14 +5342,14 @@
       <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="54"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -5457,14 +5449,14 @@
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="54"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -5525,7 +5517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -5541,22 +5533,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:7" ht="17.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5566,17 +5558,17 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B6" s="20">
@@ -5635,14 +5627,14 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
     </row>
     <row r="12" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B12" s="65">
@@ -5751,14 +5743,14 @@
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B22" s="20">
